--- a/presentation_example.xlsx
+++ b/presentation_example.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\kickstarter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{473FFA9D-04D7-4277-9A99-940C0C6B0303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6A9AB2-7307-4E8F-8D01-EB505463E57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jupyter_upload" sheetId="2" r:id="rId1"/>
     <sheet name="presentation_example" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="208">
   <si>
     <t>goal</t>
   </si>
@@ -642,12 +653,15 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>An enamel pin set based on the new, generation 5 ponies!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1489,690 +1503,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DF2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
         <v>206</v>
       </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>103</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>105</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>106</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>108</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>109</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>110</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>111</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>112</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>113</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>159</v>
-      </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
         <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" t="s">
-        <v>127</v>
+        <v>188</v>
+      </c>
+      <c r="G2">
+        <v>381</v>
       </c>
       <c r="H2">
-        <v>140889</v>
-      </c>
-      <c r="I2">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>205</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>1</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
-      <c r="BP2">
-        <v>0</v>
-      </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
-      <c r="BR2">
-        <v>1</v>
-      </c>
-      <c r="BS2">
-        <v>0</v>
-      </c>
-      <c r="BT2">
-        <v>0</v>
-      </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
-      <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2">
-        <v>0</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2">
-        <v>0</v>
-      </c>
-      <c r="BZ2">
-        <v>0</v>
-      </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2">
-        <v>0</v>
-      </c>
-      <c r="CC2">
-        <v>0</v>
-      </c>
-      <c r="CD2">
-        <v>0</v>
-      </c>
-      <c r="CE2">
-        <v>0</v>
-      </c>
-      <c r="CF2">
-        <v>0</v>
-      </c>
-      <c r="CG2">
-        <v>0</v>
-      </c>
-      <c r="CH2">
-        <v>0</v>
-      </c>
-      <c r="CI2">
-        <v>0</v>
-      </c>
-      <c r="CJ2">
-        <v>0</v>
-      </c>
-      <c r="CK2">
-        <v>0</v>
-      </c>
-      <c r="CL2">
-        <v>0</v>
-      </c>
-      <c r="CM2">
-        <v>0</v>
-      </c>
-      <c r="CN2">
-        <v>0</v>
-      </c>
-      <c r="CO2">
-        <v>0</v>
-      </c>
-      <c r="CP2">
-        <v>0</v>
-      </c>
-      <c r="CQ2">
-        <v>0</v>
-      </c>
-      <c r="CR2">
-        <v>0</v>
-      </c>
-      <c r="CS2">
-        <v>0</v>
-      </c>
-      <c r="CT2">
-        <v>0</v>
-      </c>
-      <c r="CU2">
-        <v>0</v>
-      </c>
-      <c r="CV2">
-        <v>0</v>
-      </c>
-      <c r="CW2">
-        <v>0</v>
-      </c>
-      <c r="CX2">
-        <v>0</v>
-      </c>
-      <c r="CY2">
-        <v>0</v>
-      </c>
-      <c r="CZ2">
-        <v>0</v>
-      </c>
-      <c r="DA2">
-        <v>0</v>
-      </c>
-      <c r="DB2">
-        <v>0</v>
-      </c>
-      <c r="DC2">
-        <v>0</v>
-      </c>
-      <c r="DD2">
-        <v>0</v>
-      </c>
-      <c r="DE2">
-        <v>0</v>
-      </c>
-      <c r="DF2">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DQ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
